--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31770.39394363307</v>
+        <v>-34250.38278876569</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142.2517266411481</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.4161401072778</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>92.91235857376847</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,7 +829,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551289</v>
@@ -865,25 +865,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>159.5163556738689</v>
       </c>
       <c r="U4" t="n">
-        <v>15.88548576453945</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>74.47326816522828</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>166.1032380313617</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>59.44957429027544</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>11.56974174865255</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1139,13 +1139,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>208.193301772952</v>
+        <v>72.21550457940494</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,13 +1184,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>46.62593345950991</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>167.1535070685672</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>134.3542165280282</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>225.6414338000054</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8253826161913524</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>60.64713141731121</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>76.95889114479584</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819382</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>142.3575218158263</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>130.9398757025641</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2290,16 +2290,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>98.20549876776059</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>35.41770597126702</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>191.5948276414179</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2956,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>42.14967908986333</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>7.61374123523283</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3436,10 +3436,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>127.6210071331219</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>66.09841665934279</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,10 +3952,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>204.4247418692619</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>106.5290632934504</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1344.679841041822</v>
+        <v>778.4750021151654</v>
       </c>
       <c r="C2" t="n">
-        <v>1344.679841041822</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2468.488461153925</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2259.742819759749</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2259.742819759749</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1928.679932416179</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>1928.679932416179</v>
       </c>
       <c r="X2" t="n">
-        <v>1878.507785786471</v>
+        <v>1555.214174155099</v>
       </c>
       <c r="Y2" t="n">
-        <v>1488.368453810659</v>
+        <v>1165.074842179287</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>143.6627691908473</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924317</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756614</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>918.7469765594642</v>
+        <v>1526.537080781065</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>1526.537080781065</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>1526.537080781065</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>1378.623987198672</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>2298.62828992193</v>
       </c>
       <c r="U4" t="n">
-        <v>1321.188020533234</v>
+        <v>2298.62828992193</v>
       </c>
       <c r="V4" t="n">
-        <v>1321.188020533234</v>
+        <v>2043.943801716043</v>
       </c>
       <c r="W4" t="n">
-        <v>1321.188020533234</v>
+        <v>1754.526631679083</v>
       </c>
       <c r="X4" t="n">
-        <v>1321.188020533234</v>
+        <v>1526.537080781065</v>
       </c>
       <c r="Y4" t="n">
-        <v>1100.395441389704</v>
+        <v>1526.537080781065</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1758.295537883724</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C5" t="n">
-        <v>1389.333020943313</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1031.067322336562</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>645.279069738318</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>234.2931649487104</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.5121164321834</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y5" t="n">
-        <v>2144.895377947846</v>
+        <v>2034.604709474941</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>588.395308462682</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C7" t="n">
-        <v>528.3452334219998</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219998</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1723.922056088397</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1434.819189214041</v>
       </c>
       <c r="V7" t="n">
-        <v>1326.59460854119</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="W7" t="n">
-        <v>1037.177438504229</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="X7" t="n">
-        <v>809.1878876062121</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="Y7" t="n">
-        <v>588.395308462682</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2102.480899540949</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="C8" t="n">
-        <v>1733.518382600538</v>
+        <v>806.3384156653772</v>
       </c>
       <c r="D8" t="n">
-        <v>1375.252683993787</v>
+        <v>448.0727170586267</v>
       </c>
       <c r="E8" t="n">
-        <v>989.464431395543</v>
+        <v>448.0727170586267</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866151</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605071</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y8" t="n">
-        <v>2489.080739605071</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>797.4834000772721</v>
+        <v>527.322087337517</v>
       </c>
       <c r="C10" t="n">
-        <v>628.5472171493652</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D10" t="n">
-        <v>478.4305777370295</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1790.367188361667</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1790.367188361667</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1790.367188361667</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1535.68270015578</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W10" t="n">
-        <v>1246.26553011882</v>
+        <v>1157.752682209304</v>
       </c>
       <c r="X10" t="n">
-        <v>1018.275979220802</v>
+        <v>929.7631313112869</v>
       </c>
       <c r="Y10" t="n">
-        <v>797.4834000772721</v>
+        <v>708.9705521677568</v>
       </c>
     </row>
     <row r="11">
@@ -5033,46 +5033,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>847.644273983533</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2311.25175375397</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2022.176527098168</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1767.492038892281</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1478.07486885532</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1250.085317957303</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>1029.292738813773</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,37 +5288,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597624</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474266</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5741,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,16 +5826,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
         <v>680.0291294438176</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.345997432833</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="C22" t="n">
-        <v>923.4098145049265</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>764.9868911350341</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>617.0737975526409</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1722.776592304621</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>1494.787041406604</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>1273.994462263074</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
@@ -5990,7 +5990,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>801.691883631198</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7557007032912</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>482.6390612909554</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>334.7259677085623</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>334.7259677085623</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614378</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614378</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,10 +6224,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.9786782557277</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278208</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1130.419722229497</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.6271430859674</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>424.9938751277886</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>278.1039276298782</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7488,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1481.896215602927</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1192.479045565966</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>964.4894946679487</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>30.36925650589494</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>114.3555089013359</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.2669015134051</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>298.9480722508268</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,19 +22595,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>30.53985682502591</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016431</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>83.05123379926005</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>60.88156453658561</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>145.6085800303778</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>104.8770068749576</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856948</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>148.7507642442413</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>6.25795120238601</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>14.48117232036716</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24178,16 +24178,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>67.31863952450826</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>145.6085800303776</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>34.11482774761927</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,13 +24844,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>123.3744592024055</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>210.970912116862</v>
       </c>
     </row>
     <row r="35">
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>90.96364621897284</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>152.486236692752</v>
       </c>
     </row>
     <row r="41">
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,10 +25840,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>47.71290145456607</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>145.6085800303777</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1025816.0102325</v>
+        <v>1025816.010232501</v>
       </c>
     </row>
     <row r="3">
@@ -26317,43 +26317,43 @@
         <v>328416.7079457134</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="E2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="F2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="G2" t="n">
         <v>322858.6398760025</v>
-      </c>
-      <c r="G2" t="n">
-        <v>322858.6398760023</v>
       </c>
       <c r="H2" t="n">
         <v>322858.6398760025</v>
       </c>
       <c r="I2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="J2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="K2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="L2" t="n">
         <v>322858.6398760024</v>
-      </c>
-      <c r="L2" t="n">
-        <v>322858.6398760023</v>
       </c>
       <c r="M2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="N2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760026</v>
       </c>
       <c r="O2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760026</v>
       </c>
       <c r="P2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760025</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551203</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95375.52669455671</v>
+        <v>95375.52669455676</v>
       </c>
       <c r="C4" t="n">
         <v>89134.17909312021</v>
@@ -26427,7 +26427,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26442,16 +26442,16 @@
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768916</v>
+        <v>9947.14432176891</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768912</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768879</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768857</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1004471.316930851</v>
+        <v>-1004657.71031939</v>
       </c>
       <c r="C6" t="n">
         <v>-72090.15332090607</v>
       </c>
       <c r="D6" t="n">
-        <v>131348.5882911999</v>
+        <v>131348.5882911998</v>
       </c>
       <c r="E6" t="n">
-        <v>-113623.4960770289</v>
+        <v>-113658.2340024643</v>
       </c>
       <c r="F6" t="n">
-        <v>211788.9657303265</v>
+        <v>211754.2278048906</v>
       </c>
       <c r="G6" t="n">
-        <v>211788.9657303265</v>
+        <v>211754.2278048908</v>
       </c>
       <c r="H6" t="n">
-        <v>211788.9657303265</v>
+        <v>211754.2278048908</v>
       </c>
       <c r="I6" t="n">
-        <v>211788.9657303264</v>
+        <v>211754.2278048906</v>
       </c>
       <c r="J6" t="n">
-        <v>44183.78792034382</v>
+        <v>44149.04999490813</v>
       </c>
       <c r="K6" t="n">
-        <v>162678.873024272</v>
+        <v>162644.1350988362</v>
       </c>
       <c r="L6" t="n">
-        <v>211788.9657303263</v>
+        <v>211754.2278048907</v>
       </c>
       <c r="M6" t="n">
-        <v>126733.9377948145</v>
+        <v>126699.1998693787</v>
       </c>
       <c r="N6" t="n">
-        <v>211788.9657303264</v>
+        <v>211754.227804891</v>
       </c>
       <c r="O6" t="n">
-        <v>211788.9657303264</v>
+        <v>211754.2278048908</v>
       </c>
       <c r="P6" t="n">
-        <v>211788.9657303264</v>
+        <v>211754.2278048908</v>
       </c>
     </row>
   </sheetData>
@@ -26793,10 +26793,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>240.4821150223325</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>112.5996305221272</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>61.23234032334304</v>
       </c>
       <c r="U4" t="n">
-        <v>270.3416683566612</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>308.2605734982523</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>244.8184876220917</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>107.7972468083524</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>207.9792075275166</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>198.6827439687595</v>
+        <v>334.6605411623065</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>143.143091871932</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>119.3694912680238</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>567.5882829286713</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,10 +32324,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,13 +32798,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>93.34947739681233</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
@@ -34796,7 +34796,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>230.8362312321904</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977091</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>425.454249006653</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,10 +35972,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,13 +36446,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36531,7 +36531,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306624</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
